--- a/ExcelUtils/Output.xlsx
+++ b/ExcelUtils/Output.xlsx
@@ -3,26 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B870EE2-29AB-4703-BE05-DD7FB2C2B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BB7BD7-A0F9-4461-8800-5C7A70493B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
     <t>Portals</t>
   </si>
   <si>
@@ -30,9 +40,6 @@
   </si>
   <si>
     <t>Test Scenario ID</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
   </si>
   <si>
     <t>Test Scenario Desc</t>
@@ -258,15 +265,11 @@
   <si>
     <t>Pass</t>
   </si>
-  <si>
-    <t>Fail</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,443 +708,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="64.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="64" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
